--- a/REGULAR/OJT/NEW DONE/VELUZ, DORMILUNA.xlsx
+++ b/REGULAR/OJT/NEW DONE/VELUZ, DORMILUNA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88819EA5-134D-4333-9BC0-2B53860A9BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="321">
   <si>
     <t>PERIOD</t>
   </si>
@@ -990,12 +991,18 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>ANNIV 5/24/2023</t>
+  </si>
+  <si>
+    <t>CCT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1676,7 +1683,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1693,26 +1700,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K443" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K443"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K445" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K445" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2019,34 +2026,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K443"/>
+  <dimension ref="A2:K445"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4155" topLeftCell="A388" activePane="bottomLeft"/>
-      <selection activeCell="B112" sqref="B112"/>
-      <selection pane="bottomLeft" activeCell="B399" sqref="B399"/>
+      <pane ySplit="4152" topLeftCell="A394" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="K402" sqref="K402"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2067,7 +2074,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2085,7 +2092,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2096,7 +2103,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
+      <c r="F4" s="54" t="s">
+        <v>320</v>
+      </c>
       <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -2105,7 +2114,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2113,7 +2122,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2126,7 +2135,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2143,7 +2152,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2187,7 +2196,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.8840000000000714</v>
+        <v>5.1340000000000714</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2197,12 +2206,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>74.25</v>
+        <v>74.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>85</v>
       </c>
@@ -2224,7 +2233,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>38504</v>
       </c>
@@ -2244,7 +2253,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>38534</v>
@@ -2265,7 +2274,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f t="shared" ref="A13:A112" si="0">EDATE(A12,1)</f>
         <v>38565</v>
@@ -2286,7 +2295,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>38596</v>
@@ -2313,7 +2322,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -2331,7 +2340,7 @@
         <v>38573</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f>EDATE(A14,1)</f>
         <v>38626</v>
@@ -2358,7 +2367,7 @@
         <v>38482</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>38657</v>
@@ -2379,7 +2388,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>38687</v>
@@ -2406,7 +2415,7 @@
         <v>38364</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="48" t="s">
         <v>86</v>
       </c>
@@ -2428,7 +2437,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f>EDATE(A18,1)</f>
         <v>38718</v>
@@ -2449,7 +2458,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>38749</v>
@@ -2470,7 +2479,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>38777</v>
@@ -2497,7 +2506,7 @@
         <v>38871</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>97</v>
@@ -2519,7 +2528,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -2541,7 +2550,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <f>EDATE(A22,1)</f>
         <v>38808</v>
@@ -2568,7 +2577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>38838</v>
@@ -2589,7 +2598,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>38869</v>
@@ -2610,7 +2619,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>38899</v>
@@ -2631,7 +2640,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>38930</v>
@@ -2652,7 +2661,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>38961</v>
@@ -2673,7 +2682,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>38991</v>
@@ -2700,7 +2709,7 @@
         <v>38786</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>39022</v>
@@ -2727,7 +2736,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>39052</v>
@@ -2754,7 +2763,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>45</v>
@@ -2774,7 +2783,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>101</v>
@@ -2794,7 +2803,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>88</v>
       </c>
@@ -2816,7 +2825,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f>EDATE(A33,1)</f>
         <v>39083</v>
@@ -2843,7 +2852,7 @@
         <v>39114</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -2865,7 +2874,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>45</v>
@@ -2887,7 +2896,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -2909,7 +2918,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -2931,7 +2940,7 @@
         <v>39327</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f>EDATE(A37,1)</f>
         <v>39114</v>
@@ -2952,7 +2961,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>39142</v>
@@ -2979,7 +2988,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -3001,7 +3010,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f>EDATE(A43,1)</f>
         <v>39173</v>
@@ -3028,7 +3037,7 @@
         <v>39268</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>39203</v>
@@ -3055,7 +3064,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>39234</v>
@@ -3076,7 +3085,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>39264</v>
@@ -3097,7 +3106,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>39295</v>
@@ -3124,7 +3133,7 @@
         <v>39363</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>39326</v>
@@ -3151,7 +3160,7 @@
         <v>39150</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>45</v>
@@ -3173,7 +3182,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>45</v>
@@ -3195,7 +3204,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f>EDATE(A50,1)</f>
         <v>39356</v>
@@ -3222,7 +3231,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>39387</v>
@@ -3249,7 +3258,7 @@
         <v>39213</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>110</v>
@@ -3271,7 +3280,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -3293,7 +3302,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23">
         <f>EDATE(A54,1)</f>
         <v>39417</v>
@@ -3314,7 +3323,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>96</v>
       </c>
@@ -3336,7 +3345,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f>EDATE(A57,1)</f>
         <v>39448</v>
@@ -3363,7 +3372,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -3385,7 +3394,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>116</v>
@@ -3405,7 +3414,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <f>EDATE(A59,1)</f>
         <v>39479</v>
@@ -3432,7 +3441,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>45</v>
@@ -3454,7 +3463,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f>EDATE(A62,1)</f>
         <v>39508</v>
@@ -3481,7 +3490,7 @@
         <v>39632</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>45</v>
@@ -3503,7 +3512,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>45</v>
@@ -3525,7 +3534,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>117</v>
@@ -3545,7 +3554,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f>EDATE(A64,1)</f>
         <v>39539</v>
@@ -3572,7 +3581,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>118</v>
@@ -3592,7 +3601,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <f>EDATE(A68,1)</f>
         <v>39569</v>
@@ -3619,7 +3628,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -3641,7 +3650,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>120</v>
@@ -3661,7 +3670,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f>EDATE(A70,1)</f>
         <v>39600</v>
@@ -3686,7 +3695,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>66</v>
@@ -3708,7 +3717,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>121</v>
@@ -3728,7 +3737,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f>EDATE(A73,1)</f>
         <v>39630</v>
@@ -3749,7 +3758,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f t="shared" si="0"/>
         <v>39661</v>
@@ -3776,7 +3785,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -3798,7 +3807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>117</v>
@@ -3818,7 +3827,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f>EDATE(A77,1)</f>
         <v>39692</v>
@@ -3845,7 +3854,7 @@
         <v>39761</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>131</v>
@@ -3865,7 +3874,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>39722</v>
@@ -3892,7 +3901,7 @@
         <v>39609</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>45</v>
@@ -3914,7 +3923,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -3936,7 +3945,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <f>EDATE(A82,1)</f>
         <v>39753</v>
@@ -3963,7 +3972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>45</v>
@@ -3985,7 +3994,7 @@
         <v>39640</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f>EDATE(A85,1)</f>
         <v>39783</v>
@@ -4012,7 +4021,7 @@
         <v>39550</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>45</v>
@@ -4034,7 +4043,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>132</v>
@@ -4054,7 +4063,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="48" t="s">
         <v>95</v>
       </c>
@@ -4076,7 +4085,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <f>EDATE(A87,1)</f>
         <v>39814</v>
@@ -4097,7 +4106,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f t="shared" si="0"/>
         <v>39845</v>
@@ -4122,7 +4131,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f t="shared" si="0"/>
         <v>39873</v>
@@ -4149,7 +4158,7 @@
         <v>39936</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23">
         <f t="shared" si="0"/>
         <v>39904</v>
@@ -4176,7 +4185,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f t="shared" si="0"/>
         <v>39934</v>
@@ -4201,7 +4210,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f t="shared" si="0"/>
         <v>39965</v>
@@ -4222,7 +4231,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f t="shared" si="0"/>
         <v>39995</v>
@@ -4243,7 +4252,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f t="shared" si="0"/>
         <v>40026</v>
@@ -4270,7 +4279,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <f t="shared" si="0"/>
         <v>40057</v>
@@ -4291,7 +4300,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f t="shared" si="0"/>
         <v>40087</v>
@@ -4312,7 +4321,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <f t="shared" si="0"/>
         <v>40118</v>
@@ -4339,7 +4348,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>110</v>
@@ -4361,7 +4370,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <f>EDATE(A101,1)</f>
         <v>40148</v>
@@ -4386,7 +4395,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="48" t="s">
         <v>94</v>
       </c>
@@ -4408,7 +4417,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f>EDATE(A103,1)</f>
         <v>40179</v>
@@ -4429,7 +4438,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <f t="shared" si="0"/>
         <v>40210</v>
@@ -4452,7 +4461,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f t="shared" si="0"/>
         <v>40238</v>
@@ -4473,7 +4482,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23">
         <f t="shared" si="0"/>
         <v>40269</v>
@@ -4500,7 +4509,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <f t="shared" si="0"/>
         <v>40299</v>
@@ -4525,7 +4534,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <f t="shared" si="0"/>
         <v>40330</v>
@@ -4546,7 +4555,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23">
         <f t="shared" si="0"/>
         <v>40360</v>
@@ -4571,7 +4580,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f t="shared" si="0"/>
         <v>40391</v>
@@ -4596,7 +4605,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f t="shared" ref="A113:A221" si="1">EDATE(A112,1)</f>
         <v>40422</v>
@@ -4623,7 +4632,7 @@
         <v>40246</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>150</v>
@@ -4643,7 +4652,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <f>EDATE(A113,1)</f>
         <v>40452</v>
@@ -4670,7 +4679,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>151</v>
@@ -4690,7 +4699,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <f>EDATE(A115,1)</f>
         <v>40483</v>
@@ -4715,7 +4724,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <f t="shared" si="1"/>
         <v>40513</v>
@@ -4742,7 +4751,7 @@
         <v>40433</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="48" t="s">
         <v>93</v>
       </c>
@@ -4764,7 +4773,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <f>EDATE(A118,1)</f>
         <v>40544</v>
@@ -4789,7 +4798,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <f t="shared" si="1"/>
         <v>40575</v>
@@ -4814,7 +4823,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <f t="shared" si="1"/>
         <v>40603</v>
@@ -4841,7 +4850,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23">
         <f t="shared" si="1"/>
         <v>40634</v>
@@ -4866,7 +4875,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>53</v>
@@ -4886,7 +4895,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>53</v>
@@ -4906,7 +4915,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>158</v>
@@ -4928,7 +4937,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4946,7 +4955,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f>EDATE(A123,1)</f>
         <v>40664</v>
@@ -4967,7 +4976,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f t="shared" si="1"/>
         <v>40695</v>
@@ -4994,7 +5003,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>168</v>
@@ -5014,7 +5023,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <f>EDATE(A129,1)</f>
         <v>40725</v>
@@ -5041,7 +5050,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>170</v>
@@ -5060,7 +5069,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>171</v>
@@ -5077,7 +5086,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23">
         <f>EDATE(A131,1)</f>
         <v>40756</v>
@@ -5106,7 +5115,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <f t="shared" si="1"/>
         <v>40787</v>
@@ -5127,7 +5136,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f t="shared" si="1"/>
         <v>40817</v>
@@ -5148,7 +5157,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f t="shared" si="1"/>
         <v>40848</v>
@@ -5169,7 +5178,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f t="shared" si="1"/>
         <v>40878</v>
@@ -5198,7 +5207,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>166</v>
@@ -5218,7 +5227,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>167</v>
@@ -5246,7 +5255,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="48" t="s">
         <v>92</v>
       </c>
@@ -5268,7 +5277,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <f>EDATE(A138,1)</f>
         <v>40909</v>
@@ -5291,7 +5300,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <f t="shared" si="1"/>
         <v>40940</v>
@@ -5312,7 +5321,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f t="shared" si="1"/>
         <v>40969</v>
@@ -5339,7 +5348,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <f t="shared" si="1"/>
         <v>41000</v>
@@ -5364,7 +5373,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>45</v>
@@ -5386,7 +5395,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <f>EDATE(A145,1)</f>
         <v>41030</v>
@@ -5413,7 +5422,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>49</v>
@@ -5437,7 +5446,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <f>EDATE(A147,1)</f>
         <v>41061</v>
@@ -5466,7 +5475,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <f t="shared" si="1"/>
         <v>41091</v>
@@ -5495,7 +5504,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5515,7 +5524,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <f>EDATE(A150,1)</f>
         <v>41122</v>
@@ -5544,7 +5553,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>50</v>
@@ -5568,7 +5577,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <f>EDATE(A152,1)</f>
         <v>41153</v>
@@ -5595,7 +5604,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>47</v>
@@ -5617,7 +5626,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -5639,7 +5648,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23">
         <f>EDATE(A154,1)</f>
         <v>41183</v>
@@ -5668,7 +5677,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>50</v>
@@ -5692,7 +5701,7 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <f>EDATE(A157,1)</f>
         <v>41214</v>
@@ -5717,7 +5726,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>45</v>
@@ -5737,7 +5746,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <f>EDATE(A159,1)</f>
         <v>41244</v>
@@ -5764,7 +5773,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>50</v>
@@ -5788,7 +5797,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>53</v>
@@ -5808,7 +5817,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="48" t="s">
         <v>91</v>
       </c>
@@ -5830,7 +5839,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <f>EDATE(A161,1)</f>
         <v>41275</v>
@@ -5855,7 +5864,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>53</v>
@@ -5875,7 +5884,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>49</v>
@@ -5901,7 +5910,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>195</v>
@@ -5921,7 +5930,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23">
         <f>EDATE(A165,1)</f>
         <v>41306</v>
@@ -5952,7 +5961,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>196</v>
@@ -5974,7 +5983,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <f>EDATE(A169,1)</f>
         <v>41334</v>
@@ -6001,7 +6010,7 @@
         <v>41458</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>197</v>
@@ -6021,7 +6030,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <f>EDATE(A171,1)</f>
         <v>41365</v>
@@ -6050,7 +6059,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <f t="shared" si="1"/>
         <v>41395</v>
@@ -6071,7 +6080,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23">
         <f t="shared" si="1"/>
         <v>41426</v>
@@ -6098,7 +6107,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>50</v>
@@ -6122,7 +6131,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>50</v>
@@ -6144,7 +6153,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>206</v>
@@ -6164,7 +6173,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23">
         <f>EDATE(A175,1)</f>
         <v>41456</v>
@@ -6193,7 +6202,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>207</v>
@@ -6215,7 +6224,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>208</v>
@@ -6237,7 +6246,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>209</v>
@@ -6259,7 +6268,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <f>EDATE(A179,1)</f>
         <v>41487</v>
@@ -6286,7 +6295,7 @@
         <v>41433</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>47</v>
@@ -6308,7 +6317,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>47</v>
@@ -6330,7 +6339,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>210</v>
@@ -6350,7 +6359,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <f>EDATE(A183,1)</f>
         <v>41518</v>
@@ -6377,7 +6386,7 @@
         <v>41617</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>50</v>
@@ -6401,7 +6410,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>211</v>
@@ -6421,7 +6430,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23">
         <f>EDATE(A187,1)</f>
         <v>41548</v>
@@ -6450,7 +6459,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>212</v>
@@ -6470,7 +6479,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f>EDATE(A190,1)</f>
         <v>41579</v>
@@ -6495,7 +6504,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23">
         <f t="shared" si="1"/>
         <v>41609</v>
@@ -6522,7 +6531,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>214</v>
@@ -6542,7 +6551,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="48" t="s">
         <v>90</v>
       </c>
@@ -6564,7 +6573,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A193,1)</f>
         <v>41640</v>
@@ -6593,7 +6602,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -6615,7 +6624,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>226</v>
@@ -6635,7 +6644,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>41671</v>
@@ -6662,7 +6671,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>140</v>
@@ -6682,7 +6691,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <f>EDATE(A199,1)</f>
         <v>41699</v>
@@ -6703,7 +6712,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23">
         <f t="shared" si="1"/>
         <v>41730</v>
@@ -6732,7 +6741,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>50</v>
@@ -6754,7 +6763,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>227</v>
@@ -6774,7 +6783,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>41760</v>
@@ -6801,7 +6810,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>53</v>
@@ -6821,7 +6830,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>49</v>
@@ -6847,7 +6856,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>53</v>
@@ -6867,7 +6876,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>228</v>
@@ -6887,7 +6896,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23">
         <f>EDATE(A205,1)</f>
         <v>41791</v>
@@ -6914,7 +6923,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>170</v>
@@ -6936,7 +6945,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>47</v>
@@ -6958,7 +6967,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <f>EDATE(A210,1)</f>
         <v>41821</v>
@@ -6985,7 +6994,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>47</v>
@@ -7007,7 +7016,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23">
         <f>EDATE(A213,1)</f>
         <v>41852</v>
@@ -7032,7 +7041,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>170</v>
@@ -7056,7 +7065,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>170</v>
@@ -7078,7 +7087,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>47</v>
@@ -7100,7 +7109,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23">
         <f>EDATE(A215,1)</f>
         <v>41883</v>
@@ -7125,7 +7134,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <f t="shared" si="1"/>
         <v>41913</v>
@@ -7150,7 +7159,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <f t="shared" si="1"/>
         <v>41944</v>
@@ -7177,7 +7186,7 @@
         <v>41709</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>248</v>
@@ -7197,7 +7206,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <f>EDATE(A221,1)</f>
         <v>41974</v>
@@ -7222,7 +7231,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>249</v>
@@ -7242,7 +7251,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="48" t="s">
         <v>89</v>
       </c>
@@ -7262,7 +7271,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23">
         <f>EDATE(A223,1)</f>
         <v>42005</v>
@@ -7287,7 +7296,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>252</v>
@@ -7307,7 +7316,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f>EDATE(A226,1)</f>
         <v>42036</v>
@@ -7338,7 +7347,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>253</v>
@@ -7358,7 +7367,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <f>EDATE(A228,1)</f>
         <v>42064</v>
@@ -7385,7 +7394,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>254</v>
@@ -7407,7 +7416,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>255</v>
@@ -7429,7 +7438,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>256</v>
@@ -7451,7 +7460,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <f>EDATE(A230,1)</f>
         <v>42095</v>
@@ -7478,7 +7487,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <f t="shared" ref="A235:A294" si="2">EDATE(A234,1)</f>
         <v>42125</v>
@@ -7505,7 +7514,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f t="shared" si="2"/>
         <v>42156</v>
@@ -7532,7 +7541,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>259</v>
@@ -7554,7 +7563,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>255</v>
@@ -7576,7 +7585,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>269</v>
@@ -7600,7 +7609,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <f>EDATE(A236,1)</f>
         <v>42186</v>
@@ -7629,7 +7638,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23">
         <f t="shared" si="2"/>
         <v>42217</v>
@@ -7654,7 +7663,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23">
         <f t="shared" si="2"/>
         <v>42248</v>
@@ -7679,7 +7688,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <f t="shared" si="2"/>
         <v>42278</v>
@@ -7706,7 +7715,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>273</v>
@@ -7726,7 +7735,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>42309</v>
@@ -7751,7 +7760,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23">
         <f t="shared" si="2"/>
         <v>42339</v>
@@ -7778,7 +7787,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>207</v>
@@ -7800,7 +7809,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -7822,7 +7831,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>275</v>
@@ -7842,7 +7851,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="48" t="s">
         <v>251</v>
       </c>
@@ -7864,7 +7873,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <f>EDATE(A246,1)</f>
         <v>42370</v>
@@ -7887,7 +7896,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>47</v>
@@ -7909,7 +7918,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>282</v>
@@ -7929,7 +7938,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>42401</v>
@@ -7954,7 +7963,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <f t="shared" si="2"/>
         <v>42430</v>
@@ -7981,7 +7990,7 @@
         <v>42554</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>284</v>
@@ -8001,7 +8010,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="49"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <f>EDATE(A255,1)</f>
         <v>42461</v>
@@ -8028,7 +8037,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>285</v>
@@ -8048,7 +8057,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23">
         <f>EDATE(A257,1)</f>
         <v>42491</v>
@@ -8075,7 +8084,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>53</v>
@@ -8095,7 +8104,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>286</v>
@@ -8115,7 +8124,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23">
         <f>EDATE(A259,1)</f>
         <v>42522</v>
@@ -8140,7 +8149,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>47</v>
@@ -8162,7 +8171,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>287</v>
@@ -8182,7 +8191,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <f>EDATE(A262,1)</f>
         <v>42552</v>
@@ -8209,7 +8218,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <f t="shared" si="2"/>
         <v>42583</v>
@@ -8236,7 +8245,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>288</v>
@@ -8256,7 +8265,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
         <f>EDATE(A266,1)</f>
         <v>42614</v>
@@ -8283,7 +8292,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>45</v>
@@ -8305,7 +8314,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>140</v>
@@ -8325,7 +8334,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <f>EDATE(A268,1)</f>
         <v>42644</v>
@@ -8350,7 +8359,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23">
         <f t="shared" si="2"/>
         <v>42675</v>
@@ -8375,7 +8384,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23">
         <f t="shared" si="2"/>
         <v>42705</v>
@@ -8396,7 +8405,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="48" t="s">
         <v>250</v>
       </c>
@@ -8420,7 +8429,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23">
         <f>EDATE(A273,1)</f>
         <v>42736</v>
@@ -8447,7 +8456,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <f t="shared" si="2"/>
         <v>42767</v>
@@ -8472,7 +8481,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>302</v>
@@ -8494,7 +8503,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>259</v>
@@ -8516,7 +8525,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <f>EDATE(A276,1)</f>
         <v>42795</v>
@@ -8537,7 +8546,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f t="shared" si="2"/>
         <v>42826</v>
@@ -8564,7 +8573,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>45</v>
@@ -8586,7 +8595,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23">
         <f>EDATE(A280,1)</f>
         <v>42856</v>
@@ -8607,7 +8616,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23">
         <f t="shared" si="2"/>
         <v>42887</v>
@@ -8634,7 +8643,7 @@
         <v>42953</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>45</v>
@@ -8656,7 +8665,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23">
         <f>EDATE(A283,1)</f>
         <v>42917</v>
@@ -8683,7 +8692,7 @@
         <v>43046</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <f t="shared" si="2"/>
         <v>42948</v>
@@ -8710,7 +8719,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -8726,7 +8735,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>47</v>
@@ -8748,7 +8757,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <f>EDATE(A286,1)</f>
         <v>42979</v>
@@ -8775,7 +8784,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>165</v>
@@ -8797,7 +8806,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <f>EDATE(A289,1)</f>
         <v>43009</v>
@@ -8824,7 +8833,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>47</v>
@@ -8846,7 +8855,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <f>EDATE(A291,1)</f>
         <v>43040</v>
@@ -8867,7 +8876,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <f t="shared" si="2"/>
         <v>43070</v>
@@ -8894,7 +8903,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>50</v>
@@ -8918,7 +8927,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="48" t="s">
         <v>44</v>
       </c>
@@ -8936,7 +8945,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43101</v>
       </c>
@@ -8956,7 +8965,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>43132</v>
       </c>
@@ -8982,7 +8991,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -9001,7 +9010,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>46</v>
@@ -9022,7 +9031,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>47</v>
@@ -9041,7 +9050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>43160</v>
       </c>
@@ -9067,7 +9076,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>49</v>
@@ -9090,7 +9099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>43191</v>
       </c>
@@ -9116,7 +9125,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>46</v>
@@ -9139,7 +9148,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>50</v>
@@ -9160,7 +9169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>53</v>
@@ -9177,7 +9186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>53</v>
@@ -9194,7 +9203,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>53</v>
@@ -9211,7 +9220,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>43221</v>
       </c>
@@ -9231,7 +9240,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>43252</v>
       </c>
@@ -9251,7 +9260,7 @@
       <c r="J311" s="12"/>
       <c r="K311" s="15"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>43282</v>
       </c>
@@ -9277,7 +9286,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>47</v>
@@ -9296,7 +9305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>45</v>
@@ -9315,7 +9324,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>45</v>
@@ -9334,7 +9343,7 @@
         <v>43320</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>46</v>
@@ -9353,7 +9362,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>43313</v>
       </c>
@@ -9379,7 +9388,7 @@
         <v>43335</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>43344</v>
       </c>
@@ -9405,7 +9414,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>46</v>
@@ -9424,7 +9433,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>43374</v>
       </c>
@@ -9444,7 +9453,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>43405</v>
       </c>
@@ -9464,7 +9473,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>43435</v>
       </c>
@@ -9490,7 +9499,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="48" t="s">
         <v>57</v>
       </c>
@@ -9508,7 +9517,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>43466</v>
       </c>
@@ -9534,7 +9543,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>45</v>
@@ -9551,7 +9560,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>43497</v>
       </c>
@@ -9577,7 +9586,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>43525</v>
       </c>
@@ -9603,7 +9612,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>45</v>
@@ -9622,7 +9631,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>43556</v>
       </c>
@@ -9648,7 +9657,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>43586</v>
       </c>
@@ -9674,7 +9683,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>43617</v>
       </c>
@@ -9698,7 +9707,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>45</v>
@@ -9717,7 +9726,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>43647</v>
       </c>
@@ -9743,7 +9752,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>58</v>
@@ -9764,7 +9773,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>50</v>
@@ -9783,7 +9792,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>50</v>
@@ -9802,7 +9811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>43678</v>
       </c>
@@ -9822,7 +9831,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>43709</v>
       </c>
@@ -9850,7 +9859,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>46</v>
@@ -9869,7 +9878,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>60</v>
@@ -9888,7 +9897,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>60</v>
@@ -9907,7 +9916,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>43739</v>
       </c>
@@ -9927,7 +9936,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>43770</v>
       </c>
@@ -9953,7 +9962,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>46</v>
@@ -9974,7 +9983,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>43800</v>
       </c>
@@ -10000,7 +10009,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>46</v>
@@ -10024,7 +10033,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -10042,7 +10051,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="48" t="s">
         <v>63</v>
       </c>
@@ -10060,7 +10069,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>43831</v>
       </c>
@@ -10086,7 +10095,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>46</v>
@@ -10105,7 +10114,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>64</v>
@@ -10122,7 +10131,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>45</v>
@@ -10141,7 +10150,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>43862</v>
       </c>
@@ -10161,7 +10170,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>43891</v>
       </c>
@@ -10187,7 +10196,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <v>43922</v>
       </c>
@@ -10207,7 +10216,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>43952</v>
       </c>
@@ -10227,7 +10236,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>43983</v>
       </c>
@@ -10251,7 +10260,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>44013</v>
       </c>
@@ -10271,7 +10280,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>44044</v>
       </c>
@@ -10291,7 +10300,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>44075</v>
       </c>
@@ -10311,7 +10320,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>44105</v>
       </c>
@@ -10331,7 +10340,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>44136</v>
       </c>
@@ -10351,7 +10360,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>44166</v>
       </c>
@@ -10377,7 +10386,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="48" t="s">
         <v>69</v>
       </c>
@@ -10395,7 +10404,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>44197</v>
       </c>
@@ -10421,7 +10430,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>44228</v>
       </c>
@@ -10447,7 +10456,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>44256</v>
       </c>
@@ -10467,7 +10476,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>44287</v>
       </c>
@@ -10487,7 +10496,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <v>44317</v>
       </c>
@@ -10507,7 +10516,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>44348</v>
       </c>
@@ -10527,7 +10536,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>44378</v>
       </c>
@@ -10547,7 +10556,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>44409</v>
       </c>
@@ -10567,7 +10576,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <v>44440</v>
       </c>
@@ -10591,7 +10600,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>44470</v>
       </c>
@@ -10611,7 +10620,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>44501</v>
       </c>
@@ -10631,7 +10640,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>44531</v>
       </c>
@@ -10657,7 +10666,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="48" t="s">
         <v>71</v>
       </c>
@@ -10675,7 +10684,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>44562</v>
       </c>
@@ -10695,7 +10704,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>44593</v>
       </c>
@@ -10715,7 +10724,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>44621</v>
       </c>
@@ -10741,7 +10750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>44652</v>
       </c>
@@ -10761,7 +10770,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>44682</v>
       </c>
@@ -10785,7 +10794,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>47</v>
@@ -10807,7 +10816,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>77</v>
@@ -10827,7 +10836,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>53</v>
@@ -10847,7 +10856,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>44713</v>
       </c>
@@ -10867,7 +10876,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>44743</v>
       </c>
@@ -10887,7 +10896,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <v>44774</v>
       </c>
@@ -10911,7 +10920,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>44805</v>
       </c>
@@ -10931,7 +10940,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>44835</v>
       </c>
@@ -10951,7 +10960,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>44866</v>
       </c>
@@ -10971,7 +10980,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>44896</v>
       </c>
@@ -10997,7 +11006,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="48" t="s">
         <v>79</v>
       </c>
@@ -11015,7 +11024,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>44927</v>
       </c>
@@ -11041,7 +11050,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>44958</v>
       </c>
@@ -11067,7 +11076,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f>EDATE(A395,1)</f>
         <v>44986</v>
@@ -11094,9 +11103,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
-        <f t="shared" ref="A397:A410" si="3">EDATE(A396,1)</f>
+        <f t="shared" ref="A397:A412" si="3">EDATE(A396,1)</f>
         <v>45017</v>
       </c>
       <c r="B397" s="20" t="s">
@@ -11121,7 +11130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f t="shared" si="3"/>
         <v>45047</v>
@@ -11129,13 +11138,15 @@
       <c r="B398" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C398" s="13"/>
+      <c r="C398" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D398" s="39"/>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G398" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H398" s="39">
         <v>1</v>
@@ -11146,12 +11157,11 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="40">
-        <f t="shared" si="3"/>
-        <v>45078</v>
-      </c>
-      <c r="B399" s="20"/>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A399" s="40"/>
+      <c r="B399" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C399" s="13"/>
       <c r="D399" s="39"/>
       <c r="E399" s="9"/>
@@ -11163,14 +11173,15 @@
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
-      <c r="K399" s="20"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="40">
-        <f t="shared" si="3"/>
-        <v>45108</v>
-      </c>
-      <c r="B400" s="20"/>
+      <c r="K399" s="49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A400" s="40"/>
+      <c r="B400" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C400" s="13"/>
       <c r="D400" s="39"/>
       <c r="E400" s="9"/>
@@ -11179,17 +11190,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H400" s="39"/>
+      <c r="H400" s="39">
+        <v>1</v>
+      </c>
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
-      <c r="K400" s="20"/>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K400" s="49">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
-        <f t="shared" si="3"/>
-        <v>45139</v>
-      </c>
-      <c r="B401" s="20"/>
+        <f>EDATE(A398,1)</f>
+        <v>45078</v>
+      </c>
+      <c r="B401" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C401" s="13"/>
       <c r="D401" s="39"/>
       <c r="E401" s="9"/>
@@ -11201,12 +11218,14 @@
       <c r="H401" s="39"/>
       <c r="I401" s="9"/>
       <c r="J401" s="11"/>
-      <c r="K401" s="20"/>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K401" s="49">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f t="shared" si="3"/>
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -11222,10 +11241,10 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="3"/>
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -11241,10 +11260,10 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f t="shared" si="3"/>
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -11260,10 +11279,10 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f t="shared" si="3"/>
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -11279,10 +11298,10 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f t="shared" si="3"/>
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -11298,10 +11317,10 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f t="shared" si="3"/>
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -11317,10 +11336,10 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="3"/>
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -11336,10 +11355,10 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f t="shared" si="3"/>
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -11355,10 +11374,10 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <f t="shared" si="3"/>
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -11374,8 +11393,11 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="40"/>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A411" s="40">
+        <f t="shared" si="3"/>
+        <v>45383</v>
+      </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
       <c r="D411" s="39"/>
@@ -11390,8 +11412,11 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="40"/>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A412" s="40">
+        <f t="shared" si="3"/>
+        <v>45413</v>
+      </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
       <c r="D412" s="39"/>
@@ -11406,7 +11431,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -11422,7 +11447,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11438,7 +11463,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11454,7 +11479,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11470,7 +11495,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11486,7 +11511,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11502,7 +11527,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11518,7 +11543,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11534,7 +11559,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11550,7 +11575,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11566,7 +11591,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11582,7 +11607,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11598,7 +11623,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11614,7 +11639,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11630,7 +11655,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11646,7 +11671,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11662,7 +11687,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11678,7 +11703,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11694,7 +11719,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11710,7 +11735,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11726,7 +11751,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11742,7 +11767,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11758,7 +11783,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11774,7 +11799,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11790,7 +11815,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11806,7 +11831,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11822,7 +11847,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11838,7 +11863,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11854,7 +11879,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11870,7 +11895,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11886,21 +11911,53 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" s="41"/>
-      <c r="B443" s="15"/>
-      <c r="C443" s="42"/>
-      <c r="D443" s="43"/>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A443" s="40"/>
+      <c r="B443" s="20"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="39"/>
       <c r="E443" s="9"/>
-      <c r="F443" s="15"/>
-      <c r="G443" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H443" s="43"/>
+      <c r="F443" s="20"/>
+      <c r="G443" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H443" s="39"/>
       <c r="I443" s="9"/>
-      <c r="J443" s="12"/>
-      <c r="K443" s="15"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="20"/>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A444" s="40"/>
+      <c r="B444" s="20"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="39"/>
+      <c r="E444" s="9"/>
+      <c r="F444" s="20"/>
+      <c r="G444" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H444" s="39"/>
+      <c r="I444" s="9"/>
+      <c r="J444" s="11"/>
+      <c r="K444" s="20"/>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A445" s="41"/>
+      <c r="B445" s="15"/>
+      <c r="C445" s="42"/>
+      <c r="D445" s="43"/>
+      <c r="E445" s="9"/>
+      <c r="F445" s="15"/>
+      <c r="G445" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H445" s="43"/>
+      <c r="I445" s="9"/>
+      <c r="J445" s="12"/>
+      <c r="K445" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11916,10 +11973,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11942,28 +11999,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" activeCellId="1" sqref="A6 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -11976,7 +12033,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12005,7 +12062,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -12031,17 +12088,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>318</v>
       </c>
@@ -12065,10 +12122,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>78.134000000000071</v>
+        <v>79.634000000000071</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -12096,7 +12153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12122,7 +12179,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12148,7 +12205,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12174,7 +12231,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12200,7 +12257,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12226,7 +12283,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12252,7 +12309,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12278,7 +12335,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12298,7 +12355,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12318,7 +12375,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12338,7 +12395,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12359,7 +12416,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12380,7 +12437,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12401,7 +12458,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12422,7 +12479,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12443,7 +12500,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12464,7 +12521,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12485,7 +12542,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12506,7 +12563,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12527,7 +12584,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12548,7 +12605,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12569,7 +12626,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12590,7 +12647,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12611,7 +12668,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12632,7 +12689,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12653,7 +12710,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12674,7 +12731,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12695,7 +12752,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12716,7 +12773,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12737,7 +12794,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12758,7 +12815,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12767,7 +12824,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12776,7 +12833,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12785,7 +12842,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12794,7 +12851,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12803,7 +12860,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12812,7 +12869,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12821,7 +12878,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12830,7 +12887,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12839,7 +12896,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12848,7 +12905,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12857,7 +12914,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12866,7 +12923,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12875,7 +12932,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12884,7 +12941,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12893,7 +12950,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12902,7 +12959,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12911,7 +12968,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12920,7 +12977,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12929,7 +12986,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12938,7 +12995,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12947,7 +13004,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12956,7 +13013,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12965,7 +13022,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12974,7 +13031,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12983,7 +13040,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12992,7 +13049,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13001,7 +13058,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13010,7 +13067,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13019,7 +13076,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/VELUZ, DORMILUNA.xlsx
+++ b/REGULAR/OJT/NEW DONE/VELUZ, DORMILUNA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88819EA5-134D-4333-9BC0-2B53860A9BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="323">
   <si>
     <t>PERIOD</t>
   </si>
@@ -997,12 +996,18 @@
   </si>
   <si>
     <t>CCT</t>
+  </si>
+  <si>
+    <t>6/21/2023 - 7/7/2023</t>
+  </si>
+  <si>
+    <t>SVL(13-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1683,7 +1688,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1700,26 +1705,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K445" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K445" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K446" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K446"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2026,34 +2031,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K445"/>
+  <dimension ref="A2:K446"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4152" topLeftCell="A394" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K402" sqref="K402"/>
+      <pane ySplit="4155" topLeftCell="A397" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D403" sqref="D403"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2074,7 +2079,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2092,7 +2097,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2114,7 +2119,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2122,7 +2127,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2135,7 +2140,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2152,7 +2157,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2196,7 +2201,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.1340000000000714</v>
+        <v>0.1340000000000714</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2206,12 +2211,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>74.5</v>
+        <v>66.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>85</v>
       </c>
@@ -2233,7 +2238,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>38504</v>
       </c>
@@ -2253,7 +2258,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>38534</v>
@@ -2274,7 +2279,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f t="shared" ref="A13:A112" si="0">EDATE(A12,1)</f>
         <v>38565</v>
@@ -2295,7 +2300,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" si="0"/>
         <v>38596</v>
@@ -2322,7 +2327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -2340,7 +2345,7 @@
         <v>38573</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f>EDATE(A14,1)</f>
         <v>38626</v>
@@ -2367,7 +2372,7 @@
         <v>38482</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="0"/>
         <v>38657</v>
@@ -2388,7 +2393,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <f t="shared" si="0"/>
         <v>38687</v>
@@ -2415,7 +2420,7 @@
         <v>38364</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
         <v>86</v>
       </c>
@@ -2437,7 +2442,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>EDATE(A18,1)</f>
         <v>38718</v>
@@ -2458,7 +2463,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" si="0"/>
         <v>38749</v>
@@ -2479,7 +2484,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="0"/>
         <v>38777</v>
@@ -2506,7 +2511,7 @@
         <v>38871</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>97</v>
@@ -2528,7 +2533,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -2550,7 +2555,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f>EDATE(A22,1)</f>
         <v>38808</v>
@@ -2577,7 +2582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="0"/>
         <v>38838</v>
@@ -2598,7 +2603,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f t="shared" si="0"/>
         <v>38869</v>
@@ -2619,7 +2624,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="0"/>
         <v>38899</v>
@@ -2640,7 +2645,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="0"/>
         <v>38930</v>
@@ -2661,7 +2666,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="0"/>
         <v>38961</v>
@@ -2682,7 +2687,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <f t="shared" si="0"/>
         <v>38991</v>
@@ -2709,7 +2714,7 @@
         <v>38786</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f t="shared" si="0"/>
         <v>39022</v>
@@ -2736,7 +2741,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f t="shared" si="0"/>
         <v>39052</v>
@@ -2763,7 +2768,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>45</v>
@@ -2783,7 +2788,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>101</v>
@@ -2803,7 +2808,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>88</v>
       </c>
@@ -2825,7 +2830,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f>EDATE(A33,1)</f>
         <v>39083</v>
@@ -2852,7 +2857,7 @@
         <v>39114</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -2874,7 +2879,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>45</v>
@@ -2896,7 +2901,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>45</v>
@@ -2918,7 +2923,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>45</v>
@@ -2940,7 +2945,7 @@
         <v>39327</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f>EDATE(A37,1)</f>
         <v>39114</v>
@@ -2961,7 +2966,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="0"/>
         <v>39142</v>
@@ -2988,7 +2993,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -3010,7 +3015,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f>EDATE(A43,1)</f>
         <v>39173</v>
@@ -3037,7 +3042,7 @@
         <v>39268</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f t="shared" si="0"/>
         <v>39203</v>
@@ -3064,7 +3069,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" si="0"/>
         <v>39234</v>
@@ -3085,7 +3090,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="0"/>
         <v>39264</v>
@@ -3106,7 +3111,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>39295</v>
@@ -3133,7 +3138,7 @@
         <v>39363</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="0"/>
         <v>39326</v>
@@ -3160,7 +3165,7 @@
         <v>39150</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>45</v>
@@ -3182,7 +3187,7 @@
         <v>39272</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>45</v>
@@ -3204,7 +3209,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f>EDATE(A50,1)</f>
         <v>39356</v>
@@ -3231,7 +3236,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>39387</v>
@@ -3258,7 +3263,7 @@
         <v>39213</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>110</v>
@@ -3280,7 +3285,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -3302,7 +3307,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <f>EDATE(A54,1)</f>
         <v>39417</v>
@@ -3323,7 +3328,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>96</v>
       </c>
@@ -3345,7 +3350,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f>EDATE(A57,1)</f>
         <v>39448</v>
@@ -3372,7 +3377,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -3394,7 +3399,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>116</v>
@@ -3414,7 +3419,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f>EDATE(A59,1)</f>
         <v>39479</v>
@@ -3441,7 +3446,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="20" t="s">
         <v>45</v>
@@ -3463,7 +3468,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f>EDATE(A62,1)</f>
         <v>39508</v>
@@ -3490,7 +3495,7 @@
         <v>39632</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>45</v>
@@ -3512,7 +3517,7 @@
         <v>39785</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>45</v>
@@ -3534,7 +3539,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>117</v>
@@ -3554,7 +3559,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f>EDATE(A64,1)</f>
         <v>39539</v>
@@ -3581,7 +3586,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>118</v>
@@ -3601,7 +3606,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <f>EDATE(A68,1)</f>
         <v>39569</v>
@@ -3628,7 +3633,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -3650,7 +3655,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
       <c r="B72" s="20" t="s">
         <v>120</v>
@@ -3670,7 +3675,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f>EDATE(A70,1)</f>
         <v>39600</v>
@@ -3695,7 +3700,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>66</v>
@@ -3717,7 +3722,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="20" t="s">
         <v>121</v>
@@ -3737,7 +3742,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f>EDATE(A73,1)</f>
         <v>39630</v>
@@ -3758,7 +3763,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="0"/>
         <v>39661</v>
@@ -3785,7 +3790,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>45</v>
@@ -3807,7 +3812,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>117</v>
@@ -3827,7 +3832,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f>EDATE(A77,1)</f>
         <v>39692</v>
@@ -3854,7 +3859,7 @@
         <v>39761</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>131</v>
@@ -3874,7 +3879,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>39722</v>
@@ -3901,7 +3906,7 @@
         <v>39609</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23"/>
       <c r="B83" s="20" t="s">
         <v>45</v>
@@ -3923,7 +3928,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -3945,7 +3950,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <f>EDATE(A82,1)</f>
         <v>39753</v>
@@ -3972,7 +3977,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>45</v>
@@ -3994,7 +3999,7 @@
         <v>39640</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f>EDATE(A85,1)</f>
         <v>39783</v>
@@ -4021,7 +4026,7 @@
         <v>39550</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>45</v>
@@ -4043,7 +4048,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>132</v>
@@ -4063,7 +4068,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="48" t="s">
         <v>95</v>
       </c>
@@ -4085,7 +4090,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <f>EDATE(A87,1)</f>
         <v>39814</v>
@@ -4106,7 +4111,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f t="shared" si="0"/>
         <v>39845</v>
@@ -4131,7 +4136,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" si="0"/>
         <v>39873</v>
@@ -4158,7 +4163,7 @@
         <v>39936</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <f t="shared" si="0"/>
         <v>39904</v>
@@ -4185,7 +4190,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f t="shared" si="0"/>
         <v>39934</v>
@@ -4210,7 +4215,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="0"/>
         <v>39965</v>
@@ -4231,7 +4236,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <f t="shared" si="0"/>
         <v>39995</v>
@@ -4252,7 +4257,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f t="shared" si="0"/>
         <v>40026</v>
@@ -4279,7 +4284,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <f t="shared" si="0"/>
         <v>40057</v>
@@ -4300,7 +4305,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f t="shared" si="0"/>
         <v>40087</v>
@@ -4321,7 +4326,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <f t="shared" si="0"/>
         <v>40118</v>
@@ -4348,7 +4353,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23"/>
       <c r="B102" s="20" t="s">
         <v>110</v>
@@ -4370,7 +4375,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <f>EDATE(A101,1)</f>
         <v>40148</v>
@@ -4395,7 +4400,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>94</v>
       </c>
@@ -4417,7 +4422,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f>EDATE(A103,1)</f>
         <v>40179</v>
@@ -4438,7 +4443,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f t="shared" si="0"/>
         <v>40210</v>
@@ -4461,7 +4466,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="0"/>
         <v>40238</v>
@@ -4482,7 +4487,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <f t="shared" si="0"/>
         <v>40269</v>
@@ -4509,7 +4514,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f t="shared" si="0"/>
         <v>40299</v>
@@ -4534,7 +4539,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f t="shared" si="0"/>
         <v>40330</v>
@@ -4555,7 +4560,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <f t="shared" si="0"/>
         <v>40360</v>
@@ -4580,7 +4585,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f t="shared" si="0"/>
         <v>40391</v>
@@ -4605,7 +4610,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" ref="A113:A221" si="1">EDATE(A112,1)</f>
         <v>40422</v>
@@ -4632,7 +4637,7 @@
         <v>40246</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23"/>
       <c r="B114" s="20" t="s">
         <v>150</v>
@@ -4652,7 +4657,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
         <f>EDATE(A113,1)</f>
         <v>40452</v>
@@ -4679,7 +4684,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>151</v>
@@ -4699,7 +4704,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <f>EDATE(A115,1)</f>
         <v>40483</v>
@@ -4724,7 +4729,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f t="shared" si="1"/>
         <v>40513</v>
@@ -4751,7 +4756,7 @@
         <v>40433</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="48" t="s">
         <v>93</v>
       </c>
@@ -4773,7 +4778,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <f>EDATE(A118,1)</f>
         <v>40544</v>
@@ -4798,7 +4803,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f t="shared" si="1"/>
         <v>40575</v>
@@ -4823,7 +4828,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f t="shared" si="1"/>
         <v>40603</v>
@@ -4850,7 +4855,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <f t="shared" si="1"/>
         <v>40634</v>
@@ -4875,7 +4880,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23"/>
       <c r="B124" s="20" t="s">
         <v>53</v>
@@ -4895,7 +4900,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>53</v>
@@ -4915,7 +4920,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>158</v>
@@ -4937,7 +4942,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4955,7 +4960,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A123,1)</f>
         <v>40664</v>
@@ -4976,7 +4981,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" si="1"/>
         <v>40695</v>
@@ -5003,7 +5008,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>168</v>
@@ -5023,7 +5028,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f>EDATE(A129,1)</f>
         <v>40725</v>
@@ -5050,7 +5055,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>170</v>
@@ -5069,7 +5074,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23"/>
       <c r="B133" s="20" t="s">
         <v>171</v>
@@ -5086,7 +5091,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <f>EDATE(A131,1)</f>
         <v>40756</v>
@@ -5115,7 +5120,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f t="shared" si="1"/>
         <v>40787</v>
@@ -5136,7 +5141,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <f t="shared" si="1"/>
         <v>40817</v>
@@ -5157,7 +5162,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f t="shared" si="1"/>
         <v>40848</v>
@@ -5178,7 +5183,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f t="shared" si="1"/>
         <v>40878</v>
@@ -5207,7 +5212,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>166</v>
@@ -5227,7 +5232,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>167</v>
@@ -5255,7 +5260,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="48" t="s">
         <v>92</v>
       </c>
@@ -5277,7 +5282,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A138,1)</f>
         <v>40909</v>
@@ -5300,7 +5305,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f t="shared" si="1"/>
         <v>40940</v>
@@ -5321,7 +5326,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f t="shared" si="1"/>
         <v>40969</v>
@@ -5348,7 +5353,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f t="shared" si="1"/>
         <v>41000</v>
@@ -5373,7 +5378,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>45</v>
@@ -5395,7 +5400,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f>EDATE(A145,1)</f>
         <v>41030</v>
@@ -5422,7 +5427,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>49</v>
@@ -5446,7 +5451,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <f>EDATE(A147,1)</f>
         <v>41061</v>
@@ -5475,7 +5480,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <f t="shared" si="1"/>
         <v>41091</v>
@@ -5504,7 +5509,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5524,7 +5529,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <f>EDATE(A150,1)</f>
         <v>41122</v>
@@ -5553,7 +5558,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>50</v>
@@ -5577,7 +5582,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <f>EDATE(A152,1)</f>
         <v>41153</v>
@@ -5604,7 +5609,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>47</v>
@@ -5626,7 +5631,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -5648,7 +5653,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <f>EDATE(A154,1)</f>
         <v>41183</v>
@@ -5677,7 +5682,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>50</v>
@@ -5701,7 +5706,7 @@
         <v>41163</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A157,1)</f>
         <v>41214</v>
@@ -5726,7 +5731,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>45</v>
@@ -5746,7 +5751,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f>EDATE(A159,1)</f>
         <v>41244</v>
@@ -5773,7 +5778,7 @@
         <v>41041</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>50</v>
@@ -5797,7 +5802,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23"/>
       <c r="B163" s="20" t="s">
         <v>53</v>
@@ -5817,7 +5822,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="48" t="s">
         <v>91</v>
       </c>
@@ -5839,7 +5844,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <f>EDATE(A161,1)</f>
         <v>41275</v>
@@ -5864,7 +5869,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>53</v>
@@ -5884,7 +5889,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>49</v>
@@ -5910,7 +5915,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>195</v>
@@ -5930,7 +5935,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <f>EDATE(A165,1)</f>
         <v>41306</v>
@@ -5961,7 +5966,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>196</v>
@@ -5983,7 +5988,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f>EDATE(A169,1)</f>
         <v>41334</v>
@@ -6010,7 +6015,7 @@
         <v>41458</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>197</v>
@@ -6030,7 +6035,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <f>EDATE(A171,1)</f>
         <v>41365</v>
@@ -6059,7 +6064,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f t="shared" si="1"/>
         <v>41395</v>
@@ -6080,7 +6085,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <f t="shared" si="1"/>
         <v>41426</v>
@@ -6107,7 +6112,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>50</v>
@@ -6131,7 +6136,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>50</v>
@@ -6153,7 +6158,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>206</v>
@@ -6173,7 +6178,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <f>EDATE(A175,1)</f>
         <v>41456</v>
@@ -6202,7 +6207,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>207</v>
@@ -6224,7 +6229,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>208</v>
@@ -6246,7 +6251,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>209</v>
@@ -6268,7 +6273,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f>EDATE(A179,1)</f>
         <v>41487</v>
@@ -6295,7 +6300,7 @@
         <v>41433</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>47</v>
@@ -6317,7 +6322,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>47</v>
@@ -6339,7 +6344,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>210</v>
@@ -6359,7 +6364,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <f>EDATE(A183,1)</f>
         <v>41518</v>
@@ -6386,7 +6391,7 @@
         <v>41617</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>50</v>
@@ -6410,7 +6415,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>211</v>
@@ -6430,7 +6435,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <f>EDATE(A187,1)</f>
         <v>41548</v>
@@ -6459,7 +6464,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>212</v>
@@ -6479,7 +6484,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f>EDATE(A190,1)</f>
         <v>41579</v>
@@ -6504,7 +6509,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23">
         <f t="shared" si="1"/>
         <v>41609</v>
@@ -6531,7 +6536,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>214</v>
@@ -6551,7 +6556,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="48" t="s">
         <v>90</v>
       </c>
@@ -6573,7 +6578,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EDATE(A193,1)</f>
         <v>41640</v>
@@ -6602,7 +6607,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -6624,7 +6629,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>226</v>
@@ -6644,7 +6649,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <f>EDATE(A196,1)</f>
         <v>41671</v>
@@ -6671,7 +6676,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>140</v>
@@ -6691,7 +6696,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f>EDATE(A199,1)</f>
         <v>41699</v>
@@ -6712,7 +6717,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <f t="shared" si="1"/>
         <v>41730</v>
@@ -6741,7 +6746,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>50</v>
@@ -6763,7 +6768,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>227</v>
@@ -6783,7 +6788,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <f>EDATE(A202,1)</f>
         <v>41760</v>
@@ -6810,7 +6815,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23"/>
       <c r="B206" s="20" t="s">
         <v>53</v>
@@ -6830,7 +6835,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>49</v>
@@ -6856,7 +6861,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>53</v>
@@ -6876,7 +6881,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>228</v>
@@ -6896,7 +6901,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <f>EDATE(A205,1)</f>
         <v>41791</v>
@@ -6923,7 +6928,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>170</v>
@@ -6945,7 +6950,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>47</v>
@@ -6967,7 +6972,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <f>EDATE(A210,1)</f>
         <v>41821</v>
@@ -6994,7 +6999,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>47</v>
@@ -7016,7 +7021,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <f>EDATE(A213,1)</f>
         <v>41852</v>
@@ -7041,7 +7046,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>170</v>
@@ -7065,7 +7070,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>170</v>
@@ -7087,7 +7092,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>47</v>
@@ -7109,7 +7114,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23">
         <f>EDATE(A215,1)</f>
         <v>41883</v>
@@ -7134,7 +7139,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f t="shared" si="1"/>
         <v>41913</v>
@@ -7159,7 +7164,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <f t="shared" si="1"/>
         <v>41944</v>
@@ -7186,7 +7191,7 @@
         <v>41709</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>248</v>
@@ -7206,7 +7211,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <f>EDATE(A221,1)</f>
         <v>41974</v>
@@ -7231,7 +7236,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>249</v>
@@ -7251,7 +7256,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="48" t="s">
         <v>89</v>
       </c>
@@ -7271,7 +7276,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <f>EDATE(A223,1)</f>
         <v>42005</v>
@@ -7296,7 +7301,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>252</v>
@@ -7316,7 +7321,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f>EDATE(A226,1)</f>
         <v>42036</v>
@@ -7347,7 +7352,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>253</v>
@@ -7367,7 +7372,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <f>EDATE(A228,1)</f>
         <v>42064</v>
@@ -7394,7 +7399,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>254</v>
@@ -7416,7 +7421,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>255</v>
@@ -7438,7 +7443,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>256</v>
@@ -7460,7 +7465,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f>EDATE(A230,1)</f>
         <v>42095</v>
@@ -7487,7 +7492,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <f t="shared" ref="A235:A294" si="2">EDATE(A234,1)</f>
         <v>42125</v>
@@ -7514,7 +7519,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f t="shared" si="2"/>
         <v>42156</v>
@@ -7541,7 +7546,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>259</v>
@@ -7563,7 +7568,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>255</v>
@@ -7585,7 +7590,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>269</v>
@@ -7609,7 +7614,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f>EDATE(A236,1)</f>
         <v>42186</v>
@@ -7638,7 +7643,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23">
         <f t="shared" si="2"/>
         <v>42217</v>
@@ -7663,7 +7668,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <f t="shared" si="2"/>
         <v>42248</v>
@@ -7688,7 +7693,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f t="shared" si="2"/>
         <v>42278</v>
@@ -7715,7 +7720,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>273</v>
@@ -7735,7 +7740,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>42309</v>
@@ -7760,7 +7765,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <f t="shared" si="2"/>
         <v>42339</v>
@@ -7787,7 +7792,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>207</v>
@@ -7809,7 +7814,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>50</v>
@@ -7831,7 +7836,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>275</v>
@@ -7851,7 +7856,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="48" t="s">
         <v>251</v>
       </c>
@@ -7873,7 +7878,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f>EDATE(A246,1)</f>
         <v>42370</v>
@@ -7896,7 +7901,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>47</v>
@@ -7918,7 +7923,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>282</v>
@@ -7938,7 +7943,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>42401</v>
@@ -7963,7 +7968,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <f t="shared" si="2"/>
         <v>42430</v>
@@ -7990,7 +7995,7 @@
         <v>42554</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>284</v>
@@ -8010,7 +8015,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="49"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f>EDATE(A255,1)</f>
         <v>42461</v>
@@ -8037,7 +8042,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>285</v>
@@ -8057,7 +8062,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <f>EDATE(A257,1)</f>
         <v>42491</v>
@@ -8084,7 +8089,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>53</v>
@@ -8104,7 +8109,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>286</v>
@@ -8124,7 +8129,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23">
         <f>EDATE(A259,1)</f>
         <v>42522</v>
@@ -8149,7 +8154,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>47</v>
@@ -8171,7 +8176,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>287</v>
@@ -8191,7 +8196,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f>EDATE(A262,1)</f>
         <v>42552</v>
@@ -8218,7 +8223,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f t="shared" si="2"/>
         <v>42583</v>
@@ -8245,7 +8250,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>288</v>
@@ -8265,7 +8270,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f>EDATE(A266,1)</f>
         <v>42614</v>
@@ -8292,7 +8297,7 @@
         <v>42530</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>45</v>
@@ -8314,7 +8319,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>140</v>
@@ -8334,7 +8339,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <f>EDATE(A268,1)</f>
         <v>42644</v>
@@ -8359,7 +8364,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <f t="shared" si="2"/>
         <v>42675</v>
@@ -8384,7 +8389,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <f t="shared" si="2"/>
         <v>42705</v>
@@ -8405,7 +8410,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="48" t="s">
         <v>250</v>
       </c>
@@ -8429,7 +8434,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <f>EDATE(A273,1)</f>
         <v>42736</v>
@@ -8456,7 +8461,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23">
         <f t="shared" si="2"/>
         <v>42767</v>
@@ -8481,7 +8486,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>302</v>
@@ -8503,7 +8508,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>259</v>
@@ -8525,7 +8530,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23">
         <f>EDATE(A276,1)</f>
         <v>42795</v>
@@ -8546,7 +8551,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f t="shared" si="2"/>
         <v>42826</v>
@@ -8573,7 +8578,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23"/>
       <c r="B281" s="20" t="s">
         <v>45</v>
@@ -8595,7 +8600,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <f>EDATE(A280,1)</f>
         <v>42856</v>
@@ -8616,7 +8621,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f t="shared" si="2"/>
         <v>42887</v>
@@ -8643,7 +8648,7 @@
         <v>42953</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23"/>
       <c r="B284" s="20" t="s">
         <v>45</v>
@@ -8665,7 +8670,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <f>EDATE(A283,1)</f>
         <v>42917</v>
@@ -8692,7 +8697,7 @@
         <v>43046</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <f t="shared" si="2"/>
         <v>42948</v>
@@ -8719,7 +8724,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -8735,7 +8740,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23"/>
       <c r="B288" s="20" t="s">
         <v>47</v>
@@ -8757,7 +8762,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23">
         <f>EDATE(A286,1)</f>
         <v>42979</v>
@@ -8784,7 +8789,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>165</v>
@@ -8806,7 +8811,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f>EDATE(A289,1)</f>
         <v>43009</v>
@@ -8833,7 +8838,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>47</v>
@@ -8855,7 +8860,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f>EDATE(A291,1)</f>
         <v>43040</v>
@@ -8876,7 +8881,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f t="shared" si="2"/>
         <v>43070</v>
@@ -8903,7 +8908,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>50</v>
@@ -8927,7 +8932,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="48" t="s">
         <v>44</v>
       </c>
@@ -8945,7 +8950,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>43101</v>
       </c>
@@ -8965,7 +8970,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43132</v>
       </c>
@@ -8991,7 +8996,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>45</v>
@@ -9010,7 +9015,7 @@
         <v>43133</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>46</v>
@@ -9031,7 +9036,7 @@
         <v>43142</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>47</v>
@@ -9050,7 +9055,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>43160</v>
       </c>
@@ -9076,7 +9081,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>49</v>
@@ -9099,7 +9104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43191</v>
       </c>
@@ -9125,7 +9130,7 @@
         <v>43192</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>46</v>
@@ -9148,7 +9153,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>50</v>
@@ -9169,7 +9174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>53</v>
@@ -9186,7 +9191,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>53</v>
@@ -9203,7 +9208,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>53</v>
@@ -9220,7 +9225,7 @@
         <v>43269</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>43221</v>
       </c>
@@ -9240,7 +9245,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43252</v>
       </c>
@@ -9260,7 +9265,7 @@
       <c r="J311" s="12"/>
       <c r="K311" s="15"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43282</v>
       </c>
@@ -9286,7 +9291,7 @@
         <v>43285</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>47</v>
@@ -9305,7 +9310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>45</v>
@@ -9324,7 +9329,7 @@
         <v>43311</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>45</v>
@@ -9343,7 +9348,7 @@
         <v>43320</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>46</v>
@@ -9362,7 +9367,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43313</v>
       </c>
@@ -9388,7 +9393,7 @@
         <v>43335</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>43344</v>
       </c>
@@ -9414,7 +9419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>46</v>
@@ -9433,7 +9438,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43374</v>
       </c>
@@ -9453,7 +9458,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43405</v>
       </c>
@@ -9473,7 +9478,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43435</v>
       </c>
@@ -9499,7 +9504,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="48" t="s">
         <v>57</v>
       </c>
@@ -9517,7 +9522,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43466</v>
       </c>
@@ -9543,7 +9548,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>45</v>
@@ -9560,7 +9565,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43497</v>
       </c>
@@ -9586,7 +9591,7 @@
         <v>43517</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43525</v>
       </c>
@@ -9612,7 +9617,7 @@
         <v>43539</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>45</v>
@@ -9631,7 +9636,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43556</v>
       </c>
@@ -9657,7 +9662,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43586</v>
       </c>
@@ -9683,7 +9688,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43617</v>
       </c>
@@ -9707,7 +9712,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>45</v>
@@ -9726,7 +9731,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43647</v>
       </c>
@@ -9752,7 +9757,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>58</v>
@@ -9773,7 +9778,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>50</v>
@@ -9792,7 +9797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>50</v>
@@ -9811,7 +9816,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43678</v>
       </c>
@@ -9831,7 +9836,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43709</v>
       </c>
@@ -9859,7 +9864,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>46</v>
@@ -9878,7 +9883,7 @@
         <v>43731</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>60</v>
@@ -9897,7 +9902,7 @@
         <v>43745</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>60</v>
@@ -9916,7 +9921,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43739</v>
       </c>
@@ -9936,7 +9941,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43770</v>
       </c>
@@ -9962,7 +9967,7 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>46</v>
@@ -9983,7 +9988,7 @@
         <v>43783</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43800</v>
       </c>
@@ -10009,7 +10014,7 @@
         <v>43805</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>46</v>
@@ -10033,7 +10038,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -10051,7 +10056,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="48" t="s">
         <v>63</v>
       </c>
@@ -10069,7 +10074,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43831</v>
       </c>
@@ -10095,7 +10100,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>46</v>
@@ -10114,7 +10119,7 @@
         <v>43837</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>64</v>
@@ -10131,7 +10136,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>45</v>
@@ -10150,7 +10155,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43862</v>
       </c>
@@ -10170,7 +10175,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43891</v>
       </c>
@@ -10196,7 +10201,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>43922</v>
       </c>
@@ -10216,7 +10221,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>43952</v>
       </c>
@@ -10236,7 +10241,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>43983</v>
       </c>
@@ -10260,7 +10265,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44013</v>
       </c>
@@ -10280,7 +10285,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44044</v>
       </c>
@@ -10300,7 +10305,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44075</v>
       </c>
@@ -10320,7 +10325,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44105</v>
       </c>
@@ -10340,7 +10345,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44136</v>
       </c>
@@ -10360,7 +10365,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44166</v>
       </c>
@@ -10386,7 +10391,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="48" t="s">
         <v>69</v>
       </c>
@@ -10404,7 +10409,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44197</v>
       </c>
@@ -10430,7 +10435,7 @@
         <v>44216</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44228</v>
       </c>
@@ -10456,7 +10461,7 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44256</v>
       </c>
@@ -10476,7 +10481,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44287</v>
       </c>
@@ -10496,7 +10501,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44317</v>
       </c>
@@ -10516,7 +10521,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44348</v>
       </c>
@@ -10536,7 +10541,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44378</v>
       </c>
@@ -10556,7 +10561,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44409</v>
       </c>
@@ -10576,7 +10581,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44440</v>
       </c>
@@ -10600,7 +10605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44470</v>
       </c>
@@ -10620,7 +10625,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44501</v>
       </c>
@@ -10640,7 +10645,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44531</v>
       </c>
@@ -10666,7 +10671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="48" t="s">
         <v>71</v>
       </c>
@@ -10684,7 +10689,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44562</v>
       </c>
@@ -10704,7 +10709,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44593</v>
       </c>
@@ -10724,7 +10729,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44621</v>
       </c>
@@ -10750,7 +10755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44652</v>
       </c>
@@ -10770,7 +10775,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44682</v>
       </c>
@@ -10794,7 +10799,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20" t="s">
         <v>47</v>
@@ -10816,7 +10821,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>77</v>
@@ -10836,7 +10841,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>53</v>
@@ -10856,7 +10861,7 @@
         <v>44719</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44713</v>
       </c>
@@ -10876,7 +10881,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44743</v>
       </c>
@@ -10896,7 +10901,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44774</v>
       </c>
@@ -10920,7 +10925,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44805</v>
       </c>
@@ -10940,7 +10945,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44835</v>
       </c>
@@ -10960,7 +10965,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>44866</v>
       </c>
@@ -10980,7 +10985,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>44896</v>
       </c>
@@ -11006,7 +11011,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="48" t="s">
         <v>79</v>
       </c>
@@ -11024,7 +11029,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>44927</v>
       </c>
@@ -11050,7 +11055,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>44958</v>
       </c>
@@ -11076,7 +11081,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f>EDATE(A395,1)</f>
         <v>44986</v>
@@ -11103,9 +11108,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
-        <f t="shared" ref="A397:A412" si="3">EDATE(A396,1)</f>
+        <f t="shared" ref="A397:A413" si="3">EDATE(A396,1)</f>
         <v>45017</v>
       </c>
       <c r="B397" s="20" t="s">
@@ -11130,7 +11135,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f t="shared" si="3"/>
         <v>45047</v>
@@ -11157,7 +11162,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>53</v>
@@ -11177,7 +11182,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>45</v>
@@ -11199,7 +11204,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f>EDATE(A398,1)</f>
         <v>45078</v>
@@ -11222,29 +11227,34 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A402" s="40">
-        <f t="shared" si="3"/>
-        <v>45108</v>
-      </c>
-      <c r="B402" s="20"/>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" s="40"/>
+      <c r="B402" s="20" t="s">
+        <v>322</v>
+      </c>
       <c r="C402" s="13"/>
-      <c r="D402" s="39"/>
+      <c r="D402" s="39">
+        <v>5</v>
+      </c>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
       <c r="G402" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H402" s="39"/>
+      <c r="H402" s="39">
+        <v>8</v>
+      </c>
       <c r="I402" s="9"/>
       <c r="J402" s="11"/>
-      <c r="K402" s="20"/>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K402" s="49" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <f t="shared" si="3"/>
-        <v>45139</v>
+        <f>EDATE(A401,1)</f>
+        <v>45108</v>
       </c>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -11260,10 +11270,10 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f t="shared" si="3"/>
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -11279,10 +11289,10 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f t="shared" si="3"/>
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -11298,10 +11308,10 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f t="shared" si="3"/>
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -11317,10 +11327,10 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f t="shared" si="3"/>
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -11336,10 +11346,10 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="3"/>
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -11355,10 +11365,10 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f t="shared" si="3"/>
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -11374,10 +11384,10 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <f t="shared" si="3"/>
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -11393,10 +11403,10 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f t="shared" si="3"/>
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -11412,10 +11422,10 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <f t="shared" si="3"/>
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -11431,8 +11441,11 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A413" s="40"/>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="40">
+        <f t="shared" si="3"/>
+        <v>45413</v>
+      </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
       <c r="D413" s="39"/>
@@ -11447,7 +11460,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11463,7 +11476,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11479,7 +11492,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11495,7 +11508,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11511,7 +11524,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11527,7 +11540,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11543,7 +11556,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11559,7 +11572,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11575,7 +11588,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11591,7 +11604,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11607,7 +11620,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11623,7 +11636,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11639,7 +11652,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11655,7 +11668,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11671,7 +11684,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11687,7 +11700,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11703,7 +11716,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11719,7 +11732,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11735,7 +11748,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11751,7 +11764,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11767,7 +11780,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11783,7 +11796,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11799,7 +11812,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11815,7 +11828,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11831,7 +11844,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11847,7 +11860,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11863,7 +11876,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11879,7 +11892,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11895,7 +11908,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11911,7 +11924,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11927,7 +11940,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11943,21 +11956,37 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A445" s="41"/>
-      <c r="B445" s="15"/>
-      <c r="C445" s="42"/>
-      <c r="D445" s="43"/>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" s="40"/>
+      <c r="B445" s="20"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="39"/>
       <c r="E445" s="9"/>
-      <c r="F445" s="15"/>
-      <c r="G445" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H445" s="43"/>
+      <c r="F445" s="20"/>
+      <c r="G445" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H445" s="39"/>
       <c r="I445" s="9"/>
-      <c r="J445" s="12"/>
-      <c r="K445" s="15"/>
+      <c r="J445" s="11"/>
+      <c r="K445" s="20"/>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" s="41"/>
+      <c r="B446" s="15"/>
+      <c r="C446" s="42"/>
+      <c r="D446" s="43"/>
+      <c r="E446" s="9"/>
+      <c r="F446" s="15"/>
+      <c r="G446" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H446" s="43"/>
+      <c r="I446" s="9"/>
+      <c r="J446" s="12"/>
+      <c r="K446" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11973,10 +12002,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11999,28 +12028,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" activeCellId="1" sqref="A6 A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -12033,7 +12062,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12062,7 +12091,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -12088,17 +12117,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>318</v>
       </c>
@@ -12122,10 +12151,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>79.634000000000071</v>
+        <v>66.634000000000071</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -12153,7 +12182,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12179,7 +12208,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12205,7 +12234,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12231,7 +12260,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12257,7 +12286,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12283,7 +12312,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12309,7 +12338,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12335,7 +12364,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12355,7 +12384,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12375,7 +12404,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12395,7 +12424,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12416,7 +12445,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12437,7 +12466,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12458,7 +12487,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12479,7 +12508,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12500,7 +12529,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12521,7 +12550,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12542,7 +12571,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12563,7 +12592,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12584,7 +12613,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12605,7 +12634,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12626,7 +12655,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12647,7 +12676,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12668,7 +12697,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12689,7 +12718,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12710,7 +12739,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12731,7 +12760,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12752,7 +12781,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12773,7 +12802,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12794,7 +12823,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12815,7 +12844,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12824,7 +12853,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12833,7 +12862,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12842,7 +12871,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12851,7 +12880,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12860,7 +12889,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12869,7 +12898,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12878,7 +12907,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12887,7 +12916,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12896,7 +12925,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12905,7 +12934,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12914,7 +12943,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12923,7 +12952,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12932,7 +12961,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12941,7 +12970,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12950,7 +12979,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12959,7 +12988,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12968,7 +12997,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12977,7 +13006,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12986,7 +13015,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12995,7 +13024,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13004,7 +13033,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13013,7 +13042,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13022,7 +13051,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13031,7 +13060,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13040,7 +13069,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13049,7 +13078,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13058,7 +13087,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13067,7 +13096,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13076,7 +13105,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
